--- a/backup/Alimetos/excel/requisitos.xlsx
+++ b/backup/Alimetos/excel/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7680" tabRatio="964" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8280" tabRatio="964" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="cafeteria 2 " sheetId="1" r:id="rId1"/>
@@ -852,6 +852,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":</t>
     </r>
     <r>
@@ -1032,6 +1037,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":</t>
     </r>
     <r>
@@ -1112,6 +1122,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":</t>
     </r>
     <r>
@@ -1303,6 +1318,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":</t>
     </r>
     <r>
@@ -1326,6 +1346,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":</t>
     </r>
     <r>
@@ -1349,6 +1374,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":</t>
     </r>
     <r>
@@ -1372,6 +1402,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>,"register_type_id":5</t>
     </r>
     <r>
@@ -1407,11 +1442,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1482,15 +1517,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1514,7 +1557,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1528,48 +1594,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1589,25 +1618,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1625,6 +1638,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1636,7 +1671,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1657,8 +1692,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1669,7 +1722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,25 +1746,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1794,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,13 +1848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,103 +1878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,11 +2036,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2021,24 +2101,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2060,32 +2127,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2095,134 +2136,134 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2230,7 +2271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2284,13 +2325,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2716,8 +2769,8 @@
   <sheetPr/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
@@ -2728,7 +2781,7 @@
     <col min="4" max="4" width="9.30833333333333" customWidth="1"/>
     <col min="5" max="5" width="12.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.4333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.4333333333333" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.4333333333333" style="32" customWidth="1"/>
     <col min="8" max="9" width="11.4333333333333" customWidth="1"/>
     <col min="10" max="10" width="9.90833333333333" customWidth="1"/>
     <col min="11" max="11" width="26.85" customWidth="1"/>
@@ -2823,7 +2876,7 @@
       <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="38"/>
       <c r="I3">
         <v>1.1</v>
       </c>
@@ -2856,7 +2909,7 @@
       <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="38"/>
       <c r="I4">
         <v>1.2</v>
       </c>
@@ -2889,7 +2942,7 @@
       <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="38"/>
       <c r="I5">
         <v>1.3</v>
       </c>
@@ -2922,7 +2975,7 @@
       <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="38"/>
       <c r="I6">
         <v>1.4</v>
       </c>
@@ -2955,7 +3008,7 @@
       <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="38"/>
       <c r="I7">
         <v>1.5</v>
       </c>
@@ -2972,7 +3025,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="13"/>
@@ -2988,7 +3041,7 @@
       <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="38"/>
       <c r="I8">
         <v>1.6</v>
       </c>
@@ -3021,7 +3074,7 @@
       <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="38"/>
       <c r="I9">
         <v>1.7</v>
       </c>
@@ -3054,7 +3107,7 @@
       <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="38"/>
       <c r="I10">
         <v>1.8</v>
       </c>
@@ -3074,11 +3127,11 @@
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -3087,7 +3140,7 @@
       <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="39"/>
       <c r="I11">
         <v>1.9</v>
       </c>
@@ -3107,11 +3160,11 @@
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34">
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -3120,7 +3173,7 @@
       <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="21">
         <v>1.1</v>
       </c>
@@ -3302,7 +3355,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="7"/>
@@ -3536,8 +3589,8 @@
       <c r="B25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35">
         <v>3.7</v>
       </c>
       <c r="E25" s="7">
@@ -3549,7 +3602,7 @@
       <c r="G25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="40"/>
       <c r="I25" t="s">
         <v>39</v>
       </c>
@@ -3569,8 +3622,8 @@
       <c r="B26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29">
+      <c r="C26" s="36"/>
+      <c r="D26" s="35">
         <v>3.7</v>
       </c>
       <c r="E26" s="7">
@@ -3582,7 +3635,7 @@
       <c r="G26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="41"/>
       <c r="I26" t="s">
         <v>41</v>
       </c>
@@ -3599,11 +3652,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29">
+      <c r="C27" s="36"/>
+      <c r="D27" s="35">
         <v>3.7</v>
       </c>
       <c r="E27" s="7">
@@ -3615,7 +3668,7 @@
       <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="21" t="s">
         <v>43</v>
       </c>
@@ -5504,8 +5557,8 @@
   <sheetPr/>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5579,7 +5632,7 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="25" t="str">
+      <c r="K2" s="28" t="str">
         <f>CONCATENATE($A$1,A2,$B$1,B2,$C$1,B2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,$I$1,I2,$J$1,J2,$K$1)</f>
         <v>{"Requisite":{"id":566,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":" REQUISITOS GENERALES","description":" REQUISITOS GENERALES","father_code":"-","to_approve":10,"mandatory":false,"type":"GRUPO 0","params":"","code":"1","score":0,"register_type_id":37},"attach":[]},
 </v>
@@ -5610,7 +5663,7 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="25" t="str">
+      <c r="K3" s="28" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
         <v>{"Requisite":{"id":567,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el Registro de Turismo y Licencia Única Anual de Funcionamiento (Lit. d, Art. 7 RAyB) ","description":"Contar con el Registro de Turismo y Licencia Única Anual de Funcionamiento (Lit. d, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,1","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5641,7 +5694,7 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="str">
+      <c r="K4" s="28" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
         <v>{"Requisite":{"id":568,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el libro de reclamos conforme a lo determinado en la Ley Orgánica de Defensa del Consumidor (Lit. e, Art. 7 RAyB) ","description":"Contar con el libro de reclamos conforme a lo determinado en la Ley Orgánica de Defensa del Consumidor (Lit. e, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,2","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5672,7 +5725,7 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="K5" s="28" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
         <v>{"Requisite":{"id":569,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible el Registro de Turismo y la Licencia Única Anual de Funcionamiento (Lit. f, Art. 7 RAyB) ","description":"Exhibir en un lugar visible el Registro de Turismo y la Licencia Única Anual de Funcionamiento (Lit. f, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,3","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5703,7 +5756,7 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="28" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
         <v>{"Requisite":{"id":570,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir la placa de identificación del establecimiento turístico con la tipología y clasificación del establecimiento  (Lit. g, Art. 7 RAyB) ","description":"Exhibir la placa de identificación del establecimiento turístico con la tipología y clasificación del establecimiento  (Lit. g, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,4","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5734,7 +5787,7 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="25" t="str">
+      <c r="K7" s="28" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
         <v>{"Requisite":{"id":571,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con por lo menos el 50% del personal que acredite su capacitación. formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas (Lit. i, art, 7 RAyB)","description":"Contar con por lo menos el 50% del personal que acredite su capacitación. formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas (Lit. i, art, 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,5","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5765,7 +5818,7 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="25" t="str">
+      <c r="K8" s="28" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
         <v>{"Requisite":{"id":572,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar el listado de precios en un lugar visible para el usuario (Lit. j, art. 7 RAyB)","description":"Mostrar el listado de precios en un lugar visible para el usuario (Lit. j, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,6","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5796,7 +5849,7 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="25" t="str">
+      <c r="K9" s="28" t="str">
         <f>CONCATENATE($A$1,A9,$B$1,B9,$C$1,B9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,$H$1,$I$1,I9,$J$1,J9,$K$1)</f>
         <v>{"Requisite":{"id":573,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Determinar el precio final de los alimentos o bebidas dentro del menú pudiendo estar o no desglosado en el precio final (Lit. k, art. 7 RAyB)","description":"Determinar el precio final de los alimentos o bebidas dentro del menú pudiendo estar o no desglosado en el precio final (Lit. k, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,7","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5827,7 +5880,7 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="25" t="str">
+      <c r="K10" s="28" t="str">
         <f>CONCATENATE($A$1,A10,$B$1,B10,$C$1,B10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,$H$1,$I$1,I10,$J$1,J10,$K$1)</f>
         <v>{"Requisite":{"id":574,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mantener la vajilla, cristalería, cubertería e implementos de cocina en estados óptimos de limpieza y desinfección, sin roturas o rayaduras (Lit. l, art. 7 RAyB)","description":"Mantener la vajilla, cristalería, cubertería e implementos de cocina en estados óptimos de limpieza y desinfección, sin roturas o rayaduras (Lit. l, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,8","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5858,7 +5911,7 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="25" t="str">
+      <c r="K11" s="28" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
         <v>{"Requisite":{"id":575,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mantener las instalaciones, infraestructura, mobiliario. insumos y equipa miento del establecimiento en condicionas de limpieza y funcionamiento (Lit. o, art. 7 (RAyB)","description":"Mantener las instalaciones, infraestructura, mobiliario. insumos y equipa miento del establecimiento en condicionas de limpieza y funcionamiento (Lit. o, art. 7 (RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,9","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5889,7 +5942,7 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="K12" s="28" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
         <v>{"Requisite":{"id":576,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Diferenciar al personal que se encuentra en entrenamiento (Lit. q, art. 7 RAyB)","description":"Diferenciar al personal que se encuentra en entrenamiento (Lit. q, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,1","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5899,7 +5952,7 @@
       <c r="A13" s="3">
         <v>577</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
@@ -5921,7 +5974,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="25" t="str">
+      <c r="K13" s="28" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
         <v>{"Requisite":{"id":577,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"REQUISITOS DE COMERCIALIZACIÓN E IDENTIFICACIÓN","description":"REQUISITOS DE COMERCIALIZACIÓN E IDENTIFICACIÓN","father_code":"-","to_approve":3,"mandatory":false,"type":"GRUPO 0","params":"","code":"2","score":0,"register_type_id":37},"attach":[]},
 </v>
@@ -5952,7 +6005,7 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="25" t="str">
+      <c r="K14" s="28" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
         <v>{"Requisite":{"id":578,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Oferta servicios o infraestructura que no correspondan a su clasificación o categorización. (Art. 24 RAyB)","description":"Oferta servicios o infraestructura que no correspondan a su clasificación o categorización. (Art. 24 RAyB)","father_code":"2","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"2,1","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -5983,7 +6036,7 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="25" t="str">
+      <c r="K15" s="28" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
         <v>{"Requisite":{"id":579,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Realiza o desarrolla actividades de intermediación u operación turística,transporte, guíanza turística o alojamiento directamente. (Art. 25 RAyB)","description":"Realiza o desarrolla actividades de intermediación u operación turística,transporte, guíanza turística o alojamiento directamente. (Art. 25 RAyB)","father_code":"2","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"2,2","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6014,7 +6067,7 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="25" t="str">
+      <c r="K16" s="28" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
         <v>{"Requisite":{"id":580,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con una placa donde consta la clasificación categoría, de acuerdo a las especificaciones técnicas que la Autoridad Nacional de Turismo. (Art. 26 RAyB)","description":"Cuenta con una placa donde consta la clasificación categoría, de acuerdo a las especificaciones técnicas que la Autoridad Nacional de Turismo. (Art. 26 RAyB)","father_code":"2","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"2,3","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6024,7 +6077,7 @@
       <c r="A17" s="3">
         <v>581</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D17" t="s">
@@ -6046,226 +6099,226 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="25" t="str">
+      <c r="K17" s="28" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
         <v>{"Requisite":{"id":581,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"REQUISITOS OBLIGATORIOS BAR (Anexo C)","description":"REQUISITOS OBLIGATORIOS BAR (Anexo C)","father_code":"-","to_approve":42,"mandatory":false,"type":"GRUPO 0","params":"","code":"3","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
-    <row r="18" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A18" s="3">
+    <row r="18" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A18" s="25">
         <v>582</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="15">
+        <v>16</v>
+      </c>
+      <c r="I18" s="30">
         <v>3.1</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="25" t="str">
+      <c r="J18" s="23">
+        <v>1</v>
+      </c>
+      <c r="K18" s="31" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":582,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":37},"attach":[]},
-</v>
-      </c>
-    </row>
-    <row r="19" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A19" s="3">
+        <v>{"Requisite":{"id":582,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,1","score":1,"register_type_id":37},"attach":[]},
+</v>
+      </c>
+    </row>
+    <row r="19" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A19" s="25">
         <v>583</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="23">
+        <v>3</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="15">
+        <v>16</v>
+      </c>
+      <c r="I19" s="30">
         <v>3.2</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="25" t="str">
+      <c r="J19" s="23">
+        <v>1</v>
+      </c>
+      <c r="K19" s="31" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":583,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":37},"attach":[]},
-</v>
-      </c>
-    </row>
-    <row r="20" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A20" s="3">
+        <v>{"Requisite":{"id":583,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,2","score":1,"register_type_id":37},"attach":[]},
+</v>
+      </c>
+    </row>
+    <row r="20" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A20" s="25">
         <v>584</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="23">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="15">
+        <v>16</v>
+      </c>
+      <c r="I20" s="30">
         <v>3.3</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="25" t="str">
+      <c r="J20" s="23">
+        <v>1</v>
+      </c>
+      <c r="K20" s="31" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":584,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":37},"attach":[]},
-</v>
-      </c>
-    </row>
-    <row r="21" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A21" s="3">
+        <v>{"Requisite":{"id":584,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,3","score":1,"register_type_id":37},"attach":[]},
+</v>
+      </c>
+    </row>
+    <row r="21" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A21" s="25">
         <v>585</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="23">
+        <v>3</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="15">
+        <v>16</v>
+      </c>
+      <c r="I21" s="30">
         <v>3.4</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="25" t="str">
+      <c r="J21" s="23">
+        <v>1</v>
+      </c>
+      <c r="K21" s="31" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":585,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":37},"attach":[]},
-</v>
-      </c>
-    </row>
-    <row r="22" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A22" s="3">
+        <v>{"Requisite":{"id":585,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,4","score":1,"register_type_id":37},"attach":[]},
+</v>
+      </c>
+    </row>
+    <row r="22" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A22" s="25">
         <v>586</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="23">
+        <v>3</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="15">
+        <v>16</v>
+      </c>
+      <c r="I22" s="30">
         <v>3.5</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="25" t="str">
+      <c r="J22" s="23">
+        <v>1</v>
+      </c>
+      <c r="K22" s="31" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":586,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":37},"attach":[]},
-</v>
-      </c>
-    </row>
-    <row r="23" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A23" s="3">
+        <v>{"Requisite":{"id":586,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,5","score":1,"register_type_id":37},"attach":[]},
+</v>
+      </c>
+    </row>
+    <row r="23" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A23" s="25">
         <v>587</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="15">
+        <v>16</v>
+      </c>
+      <c r="I23" s="30">
         <v>3.6</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="25" t="str">
+      <c r="J23" s="23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="31" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":587,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":37},"attach":[]},
-</v>
-      </c>
-    </row>
-    <row r="24" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A24" s="3">
+        <v>{"Requisite":{"id":587,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,6","score":1,"register_type_id":37},"attach":[]},
+</v>
+      </c>
+    </row>
+    <row r="24" s="23" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
+      <c r="A24" s="25">
         <v>588</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="23">
+        <v>3</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="15">
+        <v>16</v>
+      </c>
+      <c r="I24" s="30">
         <v>3.7</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="25" t="str">
+      <c r="J24" s="23">
+        <v>1</v>
+      </c>
+      <c r="K24" s="31" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":588,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,7","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":588,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,7","score":1,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6295,7 +6348,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="25" t="str">
+      <c r="K25" s="28" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
         <v>{"Requisite":{"id":589,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con el siguiente equipamiento en áreas de preparación de alimentos y bebidas:","description":"Debe contar con el siguiente equipamiento en áreas de preparación de alimentos y bebidas:","father_code":"3","to_approve":3,"mandatory":false,"type":"GRUPO 1","params":"","code":"3,8","score":0,"register_type_id":37},"attach":[]},
 </v>
@@ -6326,7 +6379,7 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="25" t="str">
+      <c r="K26" s="28" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
         <v>{"Requisite":{"id":590,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.8.1","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6357,7 +6410,7 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="25" t="str">
+      <c r="K27" s="28" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
         <v>{"Requisite":{"id":591,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.8.2","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6388,7 +6441,7 @@
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="25" t="str">
+      <c r="K28" s="28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
         <v>{"Requisite":{"id":592,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.8.3","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6419,7 +6472,7 @@
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="25" t="str">
+      <c r="K29" s="28" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
         <v>{"Requisite":{"id":593,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el suministro de agua permanente en el establecimiento.","description":"Contar con el suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,9","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6450,7 +6503,7 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="25" t="str">
+      <c r="K30" s="28" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
         <v>{"Requisite":{"id":594,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,1","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6481,7 +6534,7 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" s="25" t="str">
+      <c r="K31" s="28" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
         <v>{"Requisite":{"id":595,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,11","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6512,7 +6565,7 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32" s="25" t="str">
+      <c r="K32" s="28" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
         <v>{"Requisite":{"id":596,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,12","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6543,7 +6596,7 @@
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33" s="25" t="str">
+      <c r="K33" s="28" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
         <v>{"Requisite":{"id":597,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,13","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6574,7 +6627,7 @@
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="K34" s="25" t="str">
+      <c r="K34" s="28" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
         <v>{"Requisite":{"id":598,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,14","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6605,7 +6658,7 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35" s="25" t="str">
+      <c r="K35" s="28" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
         <v>{"Requisite":{"id":599,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,15","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6636,7 +6689,7 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="25" t="str">
+      <c r="K36" s="28" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
         <v>{"Requisite":{"id":600,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,16","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6667,7 +6720,7 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="25" t="str">
+      <c r="K37" s="28" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
         <v>{"Requisite":{"id":601,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,17","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6698,7 +6751,7 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="25" t="str">
+      <c r="K38" s="28" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
         <v>{"Requisite":{"id":602,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,18","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6729,7 +6782,7 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="25" t="str">
+      <c r="K39" s="28" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
         <v>{"Requisite":{"id":603,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,19","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6760,7 +6813,7 @@
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40" s="25" t="str">
+      <c r="K40" s="28" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
         <v>{"Requisite":{"id":604,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,2","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6791,7 +6844,7 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="25" t="str">
+      <c r="K41" s="28" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
         <v>{"Requisite":{"id":605,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,21","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6822,7 +6875,7 @@
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="25" t="str">
+      <c r="K42" s="28" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
         <v>{"Requisite":{"id":606,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,22","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6853,7 +6906,7 @@
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="25" t="str">
+      <c r="K43" s="28" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
         <v>{"Requisite":{"id":607,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","description":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,23","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6884,7 +6937,7 @@
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="25" t="str">
+      <c r="K44" s="28" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
         <v>{"Requisite":{"id":608,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,24","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6915,7 +6968,7 @@
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="25" t="str">
+      <c r="K45" s="28" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
         <v>{"Requisite":{"id":609,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,25","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6946,7 +6999,7 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="25" t="str">
+      <c r="K46" s="28" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
         <v>{"Requisite":{"id":610,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,26","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -6977,7 +7030,7 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="25" t="str">
+      <c r="K47" s="28" t="str">
         <f>CONCATENATE($A$1,A47,$B$1,B47,$C$1,B47,$D$1,D47,$E$1,E47,$F$1,F47,$G$1,G47,$H$1,$I$1,I47,$J$1,J47,$K$1)</f>
         <v>{"Requisite":{"id":611,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,27","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7008,7 +7061,7 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="25" t="str">
+      <c r="K48" s="28" t="str">
         <f>CONCATENATE($A$1,A48,$B$1,B48,$C$1,B48,$D$1,D48,$E$1,E48,$F$1,F48,$G$1,G48,$H$1,$I$1,I48,$J$1,J48,$K$1)</f>
         <v>{"Requisite":{"id":612,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,28","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7039,7 +7092,7 @@
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49" s="25" t="str">
+      <c r="K49" s="28" t="str">
         <f>CONCATENATE($A$1,A49,$B$1,B49,$C$1,B49,$D$1,D49,$E$1,E49,$F$1,F49,$G$1,G49,$H$1,$I$1,I49,$J$1,J49,$K$1)</f>
         <v>{"Requisite":{"id":613,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,29","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7070,7 +7123,7 @@
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50" s="25" t="str">
+      <c r="K50" s="28" t="str">
         <f>CONCATENATE($A$1,A50,$B$1,B50,$C$1,B50,$D$1,D50,$E$1,E50,$F$1,F50,$G$1,G50,$H$1,$I$1,I50,$J$1,J50,$K$1)</f>
         <v>{"Requisite":{"id":614,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","description":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,3","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7101,7 +7154,7 @@
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="25" t="str">
+      <c r="K51" s="28" t="str">
         <f>CONCATENATE($A$1,A51,$B$1,B51,$C$1,B51,$D$1,D51,$E$1,E51,$F$1,F51,$G$1,G51,$H$1,$I$1,I51,$J$1,J51,$K$1)</f>
         <v>{"Requisite":{"id":615,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,31","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7132,7 +7185,7 @@
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="K52" s="25" t="str">
+      <c r="K52" s="28" t="str">
         <f>CONCATENATE($A$1,A52,$B$1,B52,$C$1,B52,$D$1,D52,$E$1,E52,$F$1,F52,$G$1,G52,$H$1,$I$1,I52,$J$1,J52,$K$1)</f>
         <v>{"Requisite":{"id":616,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un área específica de bar / cafeteria.","description":"Contar con un área específica de bar / cafeteria.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,32","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7163,7 +7216,7 @@
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="K53" s="25" t="str">
+      <c r="K53" s="28" t="str">
         <f>CONCATENATE($A$1,A53,$B$1,B53,$C$1,B53,$D$1,D53,$E$1,E53,$F$1,F53,$G$1,G53,$H$1,$I$1,I53,$J$1,J53,$K$1)</f>
         <v>{"Requisite":{"id":617,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salidas de emergencia identificadas y habilitadas.","description":"Contar con salidas de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,33","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7194,7 +7247,7 @@
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="K54" s="25" t="str">
+      <c r="K54" s="28" t="str">
         <f>CONCATENATE($A$1,A54,$B$1,B54,$C$1,B54,$D$1,D54,$E$1,E54,$F$1,F54,$G$1,G54,$H$1,$I$1,I54,$J$1,J54,$K$1)</f>
         <v>{"Requisite":{"id":618,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,34","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7225,7 +7278,7 @@
       <c r="J55">
         <v>1</v>
       </c>
-      <c r="K55" s="25" t="str">
+      <c r="K55" s="28" t="str">
         <f>CONCATENATE($A$1,A55,$B$1,B55,$C$1,B55,$D$1,D55,$E$1,E55,$F$1,F55,$G$1,G55,$H$1,$I$1,I55,$J$1,J55,$K$1)</f>
         <v>{"Requisite":{"id":619,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","description":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,35","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7256,7 +7309,7 @@
       <c r="J56">
         <v>1</v>
       </c>
-      <c r="K56" s="25" t="str">
+      <c r="K56" s="28" t="str">
         <f>CONCATENATE($A$1,A56,$B$1,B56,$C$1,B56,$D$1,D56,$E$1,E56,$F$1,F56,$G$1,G56,$H$1,$I$1,I56,$J$1,J56,$K$1)</f>
         <v>{"Requisite":{"id":620,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,36","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7287,7 +7340,7 @@
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="K57" s="25" t="str">
+      <c r="K57" s="28" t="str">
         <f>CONCATENATE($A$1,A57,$B$1,B57,$C$1,B57,$D$1,D57,$E$1,E57,$F$1,F57,$G$1,G57,$H$1,$I$1,I57,$J$1,J57,$K$1)</f>
         <v>{"Requisite":{"id":621,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,37","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7318,7 +7371,7 @@
       <c r="J58">
         <v>1</v>
       </c>
-      <c r="K58" s="25" t="str">
+      <c r="K58" s="28" t="str">
         <f>CONCATENATE($A$1,A58,$B$1,B58,$C$1,B58,$D$1,D58,$E$1,E58,$F$1,F58,$G$1,G58,$H$1,$I$1,I58,$J$1,J58,$K$1)</f>
         <v>{"Requisite":{"id":622,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,38","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7349,7 +7402,7 @@
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="K59" s="25" t="str">
+      <c r="K59" s="28" t="str">
         <f>CONCATENATE($A$1,A59,$B$1,B59,$C$1,B59,$D$1,D59,$E$1,E59,$F$1,F59,$G$1,G59,$H$1,$I$1,I59,$J$1,J59,$K$1)</f>
         <v>{"Requisite":{"id":623,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,39","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7380,7 +7433,7 @@
       <c r="J60">
         <v>1</v>
       </c>
-      <c r="K60" s="25" t="str">
+      <c r="K60" s="28" t="str">
         <f>CONCATENATE($A$1,A60,$B$1,B60,$C$1,B60,$D$1,D60,$E$1,E60,$F$1,F60,$G$1,G60,$H$1,$I$1,I60,$J$1,J60,$K$1)</f>
         <v>{"Requisite":{"id":624,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,4","score":1,"register_type_id":37},"attach":[]},
 </v>
@@ -7390,7 +7443,7 @@
       <c r="A61" s="3">
         <v>625</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D61" t="s">
@@ -7412,7 +7465,7 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="25" t="str">
+      <c r="K61" s="28" t="str">
         <f>CONCATENATE($A$1,A61,$B$1,B61,$C$1,B61,$D$1,D61,$E$1,E61,$F$1,F61,$G$1,G61,$H$1,$I$1,I61,$J$1,J61,$K$1)</f>
         <v>{"Requisite":{"id":625,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"REQUISITOS DE CATEGORIZACIÓN (Anexo C1)","description":"REQUISITOS DE CATEGORIZACIÓN (Anexo C1)","father_code":"-","to_approve":21,"mandatory":false,"type":"GRUPO 0","params":"","code":"4","score":0,"register_type_id":37},"attach":[]},
 </v>
@@ -7443,7 +7496,7 @@
       <c r="J62" s="20">
         <v>2</v>
       </c>
-      <c r="K62" s="25" t="str">
+      <c r="K62" s="28" t="str">
         <f>CONCATENATE($A$1,A62,$B$1,B62,$C$1,B62,$D$1,D62,$E$1,E62,$F$1,F62,$G$1,G62,$H$1,$I$1,I62,$J$1,J62,$K$1)</f>
         <v>{"Requisite":{"id":626,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con entrada de clientes independiente de la del personal de servicio.","description":"Cuenta con entrada de clientes independiente de la del personal de servicio.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,1","score":2,"register_type_id":37},"attach":[]},
 </v>
@@ -7456,7 +7509,7 @@
       <c r="B63" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="28">
         <v>4</v>
       </c>
       <c r="E63">
@@ -7474,7 +7527,7 @@
       <c r="J63" s="20">
         <v>4</v>
       </c>
-      <c r="K63" s="25" t="str">
+      <c r="K63" s="28" t="str">
         <f>CONCATENATE($A$1,A63,$B$1,B63,$C$1,B63,$D$1,D63,$E$1,E63,$F$1,F63,$G$1,G63,$H$1,$I$1,I63,$J$1,J63,$K$1)</f>
         <v>{"Requisite":{"id":627,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con calefacción y/o aire acondicionado en área de servicio.","description":"Cuenta con calefacción y/o aire acondicionado en área de servicio.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,2","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7487,7 +7540,7 @@
       <c r="B64" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="28">
         <v>4</v>
       </c>
       <c r="E64">
@@ -7505,7 +7558,7 @@
       <c r="J64" s="20">
         <v>2</v>
       </c>
-      <c r="K64" s="25" t="str">
+      <c r="K64" s="28" t="str">
         <f>CONCATENATE($A$1,A64,$B$1,B64,$C$1,B64,$D$1,D64,$E$1,E64,$F$1,F64,$G$1,G64,$H$1,$I$1,I64,$J$1,J64,$K$1)</f>
         <v>{"Requisite":{"id":628,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con vestuarios y servicios higiénicos independientes para personal de servicio. Este lugar debe estar iluminado, ventilado y limpio.","description":"Cuenta con vestuarios y servicios higiénicos independientes para personal de servicio. Este lugar debe estar iluminado, ventilado y limpio.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,3","score":2,"register_type_id":37},"attach":[]},
 </v>
@@ -7518,7 +7571,7 @@
       <c r="B65" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="28">
         <v>4</v>
       </c>
       <c r="E65">
@@ -7536,7 +7589,7 @@
       <c r="J65" s="20">
         <v>4</v>
       </c>
-      <c r="K65" s="25" t="str">
+      <c r="K65" s="28" t="str">
         <f>CONCATENATE($A$1,A65,$B$1,B65,$C$1,B65,$D$1,D65,$E$1,E65,$F$1,F65,$G$1,G65,$H$1,$I$1,I65,$J$1,J65,$K$1)</f>
         <v>{"Requisite":{"id":629,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con menú en idioma extranjero.","description":"Cuenta con menú en idioma extranjero.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,4","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7549,7 +7602,7 @@
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="28">
         <v>4</v>
       </c>
       <c r="E66">
@@ -7567,7 +7620,7 @@
       <c r="J66" s="20">
         <v>4</v>
       </c>
-      <c r="K66" s="25" t="str">
+      <c r="K66" s="28" t="str">
         <f>CONCATENATE($A$1,A66,$B$1,B66,$C$1,B66,$D$1,D66,$E$1,E66,$F$1,F66,$G$1,G66,$H$1,$I$1,I66,$J$1,J66,$K$1)</f>
         <v>{"Requisite":{"id":630,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con menú de vinos nacionales e importados, vinos espumosos, licores, cervezas y aguardientes.","description":"Cuenta con menú de vinos nacionales e importados, vinos espumosos, licores, cervezas y aguardientes.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,5","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7580,7 +7633,7 @@
       <c r="B67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="28">
         <v>4</v>
       </c>
       <c r="E67">
@@ -7598,7 +7651,7 @@
       <c r="J67" s="20">
         <v>4</v>
       </c>
-      <c r="K67" s="25" t="str">
+      <c r="K67" s="28" t="str">
         <f>CONCATENATE($A$1,A67,$B$1,B67,$C$1,B67,$D$1,D67,$E$1,E67,$F$1,F67,$G$1,G67,$H$1,$I$1,I67,$J$1,J67,$K$1)</f>
         <v>{"Requisite":{"id":631,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con parqueadero, propio o contratado, y/o servicio de valet parking.","description":"Cuenta con parqueadero, propio o contratado, y/o servicio de valet parking.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,6","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7611,7 +7664,7 @@
       <c r="B68" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="28">
         <v>4</v>
       </c>
       <c r="E68">
@@ -7629,7 +7682,7 @@
       <c r="J68" s="20">
         <v>4</v>
       </c>
-      <c r="K68" s="25" t="str">
+      <c r="K68" s="28" t="str">
         <f>CONCATENATE($A$1,A68,$B$1,B68,$C$1,B68,$D$1,D68,$E$1,E68,$F$1,F68,$G$1,G68,$H$1,$I$1,I68,$J$1,J68,$K$1)</f>
         <v>{"Requisite":{"id":632,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con servicio de reserva de mesa.","description":"Cuenta con servicio de reserva de mesa.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,7","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7642,7 +7695,7 @@
       <c r="B69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="28">
         <v>4</v>
       </c>
       <c r="E69">
@@ -7660,7 +7713,7 @@
       <c r="J69" s="20">
         <v>4</v>
       </c>
-      <c r="K69" s="25" t="str">
+      <c r="K69" s="28" t="str">
         <f>CONCATENATE($A$1,A69,$B$1,B69,$C$1,B69,$D$1,D69,$E$1,E69,$F$1,F69,$G$1,G69,$H$1,$I$1,I69,$J$1,J69,$K$1)</f>
         <v>{"Requisite":{"id":633,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,8","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7673,7 +7726,7 @@
       <c r="B70" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="28">
         <v>4</v>
       </c>
       <c r="E70">
@@ -7691,7 +7744,7 @@
       <c r="J70" s="20">
         <v>4</v>
       </c>
-      <c r="K70" s="25" t="str">
+      <c r="K70" s="28" t="str">
         <f>CONCATENATE($A$1,A70,$B$1,B70,$C$1,B70,$D$1,D70,$E$1,E70,$F$1,F70,$G$1,G70,$H$1,$I$1,I70,$J$1,J70,$K$1)</f>
         <v>{"Requisite":{"id":634,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un 10%  mínimo del personal  que acredita el nivel A2 (nivel básico) de conocimiento de un idioma extranjero de acuerdo al Marco Común Europeo para las lenguas.","description":"Cuenta con un 10%  mínimo del personal  que acredita el nivel A2 (nivel básico) de conocimiento de un idioma extranjero de acuerdo al Marco Común Europeo para las lenguas.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,9","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7704,7 +7757,7 @@
       <c r="B71" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="28">
         <v>4</v>
       </c>
       <c r="E71">
@@ -7722,7 +7775,7 @@
       <c r="J71" s="20">
         <v>6</v>
       </c>
-      <c r="K71" s="25" t="str">
+      <c r="K71" s="28" t="str">
         <f>CONCATENATE($A$1,A71,$B$1,B71,$C$1,B71,$D$1,D71,$E$1,E71,$F$1,F71,$G$1,G71,$H$1,$I$1,I71,$J$1,J71,$K$1)</f>
         <v>{"Requisite":{"id":635,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un plan de registro de temperaturas en equipos de congelación y refrigeración.","description":"Cuenta con un plan de registro de temperaturas en equipos de congelación y refrigeración.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,1","score":6,"register_type_id":37},"attach":[]},
 </v>
@@ -7735,7 +7788,7 @@
       <c r="B72" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="28">
         <v>4</v>
       </c>
       <c r="E72">
@@ -7753,7 +7806,7 @@
       <c r="J72" s="20">
         <v>6</v>
       </c>
-      <c r="K72" s="25" t="str">
+      <c r="K72" s="28" t="str">
         <f>CONCATENATE($A$1,A72,$B$1,B72,$C$1,B72,$D$1,D72,$E$1,E72,$F$1,F72,$G$1,G72,$H$1,$I$1,I72,$J$1,J72,$K$1)</f>
         <v>{"Requisite":{"id":636,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con sistemas de purificación de agua en áreas de preparación de alimentos y/o bebidas.","description":"Cuenta con sistemas de purificación de agua en áreas de preparación de alimentos y/o bebidas.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,11","score":6,"register_type_id":37},"attach":[]},
 </v>
@@ -7766,7 +7819,7 @@
       <c r="B73" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="28">
         <v>4</v>
       </c>
       <c r="E73">
@@ -7784,7 +7837,7 @@
       <c r="J73" s="20">
         <v>4</v>
       </c>
-      <c r="K73" s="25" t="str">
+      <c r="K73" s="28" t="str">
         <f>CONCATENATE($A$1,A73,$B$1,B73,$C$1,B73,$D$1,D73,$E$1,E73,$F$1,F73,$G$1,G73,$H$1,$I$1,I73,$J$1,J73,$K$1)</f>
         <v>{"Requisite":{"id":637,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con fuentes de abastecimiento alternativo de energía eléctrica en caso de necesitarlo.","description":"Cuenta con fuentes de abastecimiento alternativo de energía eléctrica en caso de necesitarlo.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,12","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7797,7 +7850,7 @@
       <c r="B74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="28">
         <v>4</v>
       </c>
       <c r="E74">
@@ -7815,7 +7868,7 @@
       <c r="J74" s="20">
         <v>4</v>
       </c>
-      <c r="K74" s="25" t="str">
+      <c r="K74" s="28" t="str">
         <f>CONCATENATE($A$1,A74,$B$1,B74,$C$1,B74,$D$1,D74,$E$1,E74,$F$1,F74,$G$1,G74,$H$1,$I$1,I74,$J$1,J74,$K$1)</f>
         <v>{"Requisite":{"id":638,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un listado de compañías de taxis de la zona y/o aplicaciones móviles para otorgar el servicio de taxi.","description":"Cuenta con un listado de compañías de taxis de la zona y/o aplicaciones móviles para otorgar el servicio de taxi.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,13","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7828,7 +7881,7 @@
       <c r="B75" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="28">
         <v>4</v>
       </c>
       <c r="E75">
@@ -7846,7 +7899,7 @@
       <c r="J75" s="20">
         <v>4</v>
       </c>
-      <c r="K75" s="25" t="str">
+      <c r="K75" s="28" t="str">
         <f>CONCATENATE($A$1,A75,$B$1,B75,$C$1,B75,$D$1,D75,$E$1,E75,$F$1,F75,$G$1,G75,$H$1,$I$1,I75,$J$1,J75,$K$1)</f>
         <v>{"Requisite":{"id":639,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con sistema de facturación.","description":"Cuenta con sistema de facturación.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,14","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7859,7 +7912,7 @@
       <c r="B76" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="28">
         <v>4</v>
       </c>
       <c r="E76">
@@ -7877,7 +7930,7 @@
       <c r="J76" s="20">
         <v>4</v>
       </c>
-      <c r="K76" s="25" t="str">
+      <c r="K76" s="28" t="str">
         <f>CONCATENATE($A$1,A76,$B$1,B76,$C$1,B76,$D$1,D76,$E$1,E76,$F$1,F76,$G$1,G76,$H$1,$I$1,I76,$J$1,J76,$K$1)</f>
         <v>{"Requisite":{"id":640,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con carta de alimentos","description":"Cuenta con carta de alimentos","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,15","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7890,7 +7943,7 @@
       <c r="B77" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="28">
         <v>4</v>
       </c>
       <c r="E77">
@@ -7908,7 +7961,7 @@
       <c r="J77" s="20">
         <v>4</v>
       </c>
-      <c r="K77" s="25" t="str">
+      <c r="K77" s="28" t="str">
         <f>CONCATENATE($A$1,A77,$B$1,B77,$C$1,B77,$D$1,D77,$E$1,E77,$F$1,F77,$G$1,G77,$H$1,$I$1,I77,$J$1,J77,$K$1)</f>
         <v>{"Requisite":{"id":641,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con área específica para presentaciones en vivo.","description":"Cuenta con área específica para presentaciones en vivo.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,16","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7921,7 +7974,7 @@
       <c r="B78" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="28">
         <v>4</v>
       </c>
       <c r="E78">
@@ -7939,7 +7992,7 @@
       <c r="J78" s="20">
         <v>4</v>
       </c>
-      <c r="K78" s="25" t="str">
+      <c r="K78" s="28" t="str">
         <f>CONCATENATE($A$1,A78,$B$1,B78,$C$1,B78,$D$1,D78,$E$1,E78,$F$1,F78,$G$1,G78,$H$1,$I$1,I78,$J$1,J78,$K$1)</f>
         <v>{"Requisite":{"id":642,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con una póliza de responsabilidad civil.","description":"Cuenta con una póliza de responsabilidad civil.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,17","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -7952,7 +8005,7 @@
       <c r="B79" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="28">
         <v>4</v>
       </c>
       <c r="E79">
@@ -7970,7 +8023,7 @@
       <c r="J79" s="20">
         <v>6</v>
       </c>
-      <c r="K79" s="25" t="str">
+      <c r="K79" s="28" t="str">
         <f>CONCATENATE($A$1,A79,$B$1,B79,$C$1,B79,$D$1,D79,$E$1,E79,$F$1,F79,$G$1,G79,$H$1,$I$1,I79,$J$1,J79,$K$1)</f>
         <v>{"Requisite":{"id":643,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con plan de limpieza.","description":"Cuenta con plan de limpieza.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,18","score":6,"register_type_id":37},"attach":[]},
 </v>
@@ -7983,7 +8036,7 @@
       <c r="B80" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="28">
         <v>4</v>
       </c>
       <c r="E80">
@@ -8001,7 +8054,7 @@
       <c r="J80" s="20">
         <v>4</v>
       </c>
-      <c r="K80" s="25" t="str">
+      <c r="K80" s="28" t="str">
         <f>CONCATENATE($A$1,A80,$B$1,B80,$C$1,B80,$D$1,D80,$E$1,E80,$F$1,F80,$G$1,G80,$H$1,$I$1,I80,$J$1,J80,$K$1)</f>
         <v>{"Requisite":{"id":644,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con facilidades de pago electrónico (transferencia, pay pal, tarjeta de débito/ crédito y/o dinero electrónico).","description":"Contar con facilidades de pago electrónico (transferencia, pay pal, tarjeta de débito/ crédito y/o dinero electrónico).","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,19","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -8014,7 +8067,7 @@
       <c r="B81" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="28">
         <v>4</v>
       </c>
       <c r="E81">
@@ -8032,7 +8085,7 @@
       <c r="J81" s="20">
         <v>2</v>
       </c>
-      <c r="K81" s="25" t="str">
+      <c r="K81" s="28" t="str">
         <f>CONCATENATE($A$1,A81,$B$1,B81,$C$1,B81,$D$1,D81,$E$1,E81,$F$1,F81,$G$1,G81,$H$1,$I$1,I81,$J$1,J81,$K$1)</f>
         <v>{"Requisite":{"id":645,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos ","description":"Contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos ","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,2","score":2,"register_type_id":37},"attach":[]},
 </v>
@@ -8045,7 +8098,7 @@
       <c r="B82" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="28">
         <v>4</v>
       </c>
       <c r="E82">
@@ -8063,7 +8116,7 @@
       <c r="J82" s="20">
         <v>4</v>
       </c>
-      <c r="K82" s="25" t="str">
+      <c r="K82" s="28" t="str">
         <f>CONCATENATE($A$1,A82,$B$1,B82,$C$1,B82,$D$1,D82,$E$1,E82,$F$1,F82,$G$1,G82,$H$1,$I$1,I82,$J$1,J82,$K$1)</f>
         <v>{"Requisite":{"id":646,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con área de fumadores ","description":"Cuenta con área de fumadores ","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,21","score":4,"register_type_id":37},"attach":[]},
 </v>
@@ -8114,8 +8167,8 @@
   <sheetPr/>
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -11388,8 +11441,8 @@
   <sheetPr/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -13810,8 +13863,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -15221,8 +15274,8 @@
   <sheetPr/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -16529,8 +16582,8 @@
   <sheetPr/>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -18369,8 +18422,8 @@
   <sheetPr/>
   <dimension ref="A1:K239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K61" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K82"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -18444,7 +18497,7 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="25" t="str">
+      <c r="K2" s="28" t="str">
         <f>CONCATENATE($A$1,A2,$B$1,B2,$C$1,B2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,$I$1,I2,$J$1,J2,$K$1)</f>
         <v>{"Requisite":{"id":84,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":" REQUISITOS GENERALES","description":" REQUISITOS GENERALES","father_code":"-","to_approve":10,"mandatory":false,"type":"GRUPO 0","params":"","code":"1","score":0,"register_type_id":6},"attach":[]},
 </v>
@@ -18475,7 +18528,7 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="25" t="str">
+      <c r="K3" s="28" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
         <v>{"Requisite":{"id":85,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el Registro de Turismo y Licencia Única Anual de Funcionamiento (Lit. d, Art. 7 RAyB) ","description":"Contar con el Registro de Turismo y Licencia Única Anual de Funcionamiento (Lit. d, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,1","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18506,7 +18559,7 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="str">
+      <c r="K4" s="28" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
         <v>{"Requisite":{"id":86,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el libro de reclamos conforme a lo determinado en la Ley Orgánica de Defensa del Consumidor (Lit. e, Art. 7 RAyB) ","description":"Contar con el libro de reclamos conforme a lo determinado en la Ley Orgánica de Defensa del Consumidor (Lit. e, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,2","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18537,7 +18590,7 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="K5" s="28" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
         <v>{"Requisite":{"id":87,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible el Registro de Turismo y la Licencia Única Anual de Funcionamiento (Lit. f, Art. 7 RAyB) ","description":"Exhibir en un lugar visible el Registro de Turismo y la Licencia Única Anual de Funcionamiento (Lit. f, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,3","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18568,7 +18621,7 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="28" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
         <v>{"Requisite":{"id":88,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir la placa de identificación del establecimiento turístico con la tipología y clasificación del establecimiento  (Lit. g, Art. 7 RAyB) ","description":"Exhibir la placa de identificación del establecimiento turístico con la tipología y clasificación del establecimiento  (Lit. g, Art. 7 RAyB) ","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,4","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18599,7 +18652,7 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="25" t="str">
+      <c r="K7" s="28" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
         <v>{"Requisite":{"id":89,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con por lo menos el 50% del personal que acredite su capacitación. formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas (Lit. i, art, 7 RAyB)","description":"Contar con por lo menos el 50% del personal que acredite su capacitación. formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas (Lit. i, art, 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,5","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18630,7 +18683,7 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="25" t="str">
+      <c r="K8" s="28" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
         <v>{"Requisite":{"id":90,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar el listado de precios en un lugar visible para el usuario (Lit. j, art. 7 RAyB)","description":"Mostrar el listado de precios en un lugar visible para el usuario (Lit. j, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,6","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18661,7 +18714,7 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="25" t="str">
+      <c r="K9" s="28" t="str">
         <f>CONCATENATE($A$1,A9,$B$1,B9,$C$1,B9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,$H$1,$I$1,I9,$J$1,J9,$K$1)</f>
         <v>{"Requisite":{"id":91,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Determinar el precio final de los alimentos o bebidas dentro del menú pudiendo estar o no desglosado en el precio final (Lit. k, art. 7 RAyB)","description":"Determinar el precio final de los alimentos o bebidas dentro del menú pudiendo estar o no desglosado en el precio final (Lit. k, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,7","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18692,7 +18745,7 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="25" t="str">
+      <c r="K10" s="28" t="str">
         <f>CONCATENATE($A$1,A10,$B$1,B10,$C$1,B10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,$H$1,$I$1,I10,$J$1,J10,$K$1)</f>
         <v>{"Requisite":{"id":92,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mantener la vajilla, cristalería, cubertería e implementos de cocina en estados óptimos de limpieza y desinfección, sin roturas o rayaduras (Lit. l, art. 7 RAyB)","description":"Mantener la vajilla, cristalería, cubertería e implementos de cocina en estados óptimos de limpieza y desinfección, sin roturas o rayaduras (Lit. l, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,8","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18723,7 +18776,7 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="25" t="str">
+      <c r="K11" s="28" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
         <v>{"Requisite":{"id":93,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mantener las instalaciones, infraestructura, mobiliario. insumos y equipa miento del establecimiento en condicionas de limpieza y funcionamiento (Lit. o, art. 7 (RAyB)","description":"Mantener las instalaciones, infraestructura, mobiliario. insumos y equipa miento del establecimiento en condicionas de limpieza y funcionamiento (Lit. o, art. 7 (RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,9","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18754,7 +18807,7 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="K12" s="28" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
         <v>{"Requisite":{"id":94,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Diferenciar al personal que se encuentra en entrenamiento (Lit. q, art. 7 RAyB)","description":"Diferenciar al personal que se encuentra en entrenamiento (Lit. q, art. 7 RAyB)","father_code":"1","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"1,1","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18764,7 +18817,7 @@
       <c r="A13">
         <v>95</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
@@ -18786,7 +18839,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="25" t="str">
+      <c r="K13" s="28" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
         <v>{"Requisite":{"id":95,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"REQUISITOS DE COMERCIALIZACIÓN E IDENTIFICACIÓN","description":"REQUISITOS DE COMERCIALIZACIÓN E IDENTIFICACIÓN","father_code":"-","to_approve":3,"mandatory":false,"type":"GRUPO 0","params":"","code":"2","score":0,"register_type_id":6},"attach":[]},
 </v>
@@ -18817,7 +18870,7 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="25" t="str">
+      <c r="K14" s="28" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
         <v>{"Requisite":{"id":96,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Oferta servicios o infraestructura que no correspondan a su clasificación o categorización. (Art. 24 RAyB)","description":"Oferta servicios o infraestructura que no correspondan a su clasificación o categorización. (Art. 24 RAyB)","father_code":"2","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"2,1","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18848,7 +18901,7 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="25" t="str">
+      <c r="K15" s="28" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
         <v>{"Requisite":{"id":97,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Realiza o desarrolla actividades de intermediación u operación turística,transporte, guíanza turística o alojamiento directamente. (Art. 25 RAyB)","description":"Realiza o desarrolla actividades de intermediación u operación turística,transporte, guíanza turística o alojamiento directamente. (Art. 25 RAyB)","father_code":"2","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"2,2","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18879,7 +18932,7 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="25" t="str">
+      <c r="K16" s="28" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
         <v>{"Requisite":{"id":98,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con una placa donde consta la clasificación categoría, de acuerdo a las especificaciones técnicas que la Autoridad Nacional de Turismo. (Art. 26 RAyB)","description":"Cuenta con una placa donde consta la clasificación categoría, de acuerdo a las especificaciones técnicas que la Autoridad Nacional de Turismo. (Art. 26 RAyB)","father_code":"2","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"2,3","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18889,7 +18942,7 @@
       <c r="A17">
         <v>99</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D17" t="s">
@@ -18911,7 +18964,7 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="25" t="str">
+      <c r="K17" s="28" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
         <v>{"Requisite":{"id":99,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"REQUISITOS OBLIGATORIOS BAR (Anexo C)","description":"REQUISITOS OBLIGATORIOS BAR (Anexo C)","father_code":"-","to_approve":42,"mandatory":false,"type":"GRUPO 0","params":"","code":"3","score":0,"register_type_id":6},"attach":[]},
 </v>
@@ -18942,7 +18995,7 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="25" t="str">
+      <c r="K18" s="28" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
         <v>{"Requisite":{"id":100,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,1","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -18973,7 +19026,7 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="25" t="str">
+      <c r="K19" s="28" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
         <v>{"Requisite":{"id":101,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,2","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19004,7 +19057,7 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="25" t="str">
+      <c r="K20" s="28" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
         <v>{"Requisite":{"id":102,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,3","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19035,7 +19088,7 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="25" t="str">
+      <c r="K21" s="28" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
         <v>{"Requisite":{"id":103,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,4","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19066,7 +19119,7 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="25" t="str">
+      <c r="K22" s="28" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
         <v>{"Requisite":{"id":104,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,5","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19097,7 +19150,7 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" s="25" t="str">
+      <c r="K23" s="28" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
         <v>{"Requisite":{"id":105,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,6","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19128,7 +19181,7 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="25" t="str">
+      <c r="K24" s="28" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
         <v>{"Requisite":{"id":106,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,7","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19160,7 +19213,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="25" t="str">
+      <c r="K25" s="28" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
         <v>{"Requisite":{"id":107,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con el siguiente equipamiento en áreas de preparación de alimentos y bebidas:","description":"Debe contar con el siguiente equipamiento en áreas de preparación de alimentos y bebidas:","father_code":"3","to_approve":3,"mandatory":false,"type":"GRUPO 1","params":"","code":"3,8","score":0,"register_type_id":6},"attach":[]},
 </v>
@@ -19191,7 +19244,7 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="25" t="str">
+      <c r="K26" s="28" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
         <v>{"Requisite":{"id":108,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.8.1","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19222,7 +19275,7 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="25" t="str">
+      <c r="K27" s="28" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
         <v>{"Requisite":{"id":109,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.8.2","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19253,7 +19306,7 @@
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="25" t="str">
+      <c r="K28" s="28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
         <v>{"Requisite":{"id":110,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.8.3","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19284,7 +19337,7 @@
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="25" t="str">
+      <c r="K29" s="28" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
         <v>{"Requisite":{"id":111,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el suministro de agua permanente en el establecimiento.","description":"Contar con el suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,9","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19315,7 +19368,7 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="25" t="str">
+      <c r="K30" s="28" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
         <v>{"Requisite":{"id":112,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,1","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19346,7 +19399,7 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" s="25" t="str">
+      <c r="K31" s="28" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
         <v>{"Requisite":{"id":113,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,11","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19377,7 +19430,7 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32" s="25" t="str">
+      <c r="K32" s="28" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
         <v>{"Requisite":{"id":114,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,12","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19408,7 +19461,7 @@
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33" s="25" t="str">
+      <c r="K33" s="28" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
         <v>{"Requisite":{"id":115,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,13","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19439,7 +19492,7 @@
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="K34" s="25" t="str">
+      <c r="K34" s="28" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
         <v>{"Requisite":{"id":116,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,14","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19470,7 +19523,7 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35" s="25" t="str">
+      <c r="K35" s="28" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
         <v>{"Requisite":{"id":117,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,15","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19501,7 +19554,7 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="25" t="str">
+      <c r="K36" s="28" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
         <v>{"Requisite":{"id":118,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,16","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19532,7 +19585,7 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="25" t="str">
+      <c r="K37" s="28" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
         <v>{"Requisite":{"id":119,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,17","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19563,7 +19616,7 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="25" t="str">
+      <c r="K38" s="28" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
         <v>{"Requisite":{"id":120,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,18","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19594,7 +19647,7 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="25" t="str">
+      <c r="K39" s="28" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
         <v>{"Requisite":{"id":121,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,19","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19625,7 +19678,7 @@
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40" s="25" t="str">
+      <c r="K40" s="28" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
         <v>{"Requisite":{"id":122,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,2","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19656,7 +19709,7 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="25" t="str">
+      <c r="K41" s="28" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
         <v>{"Requisite":{"id":123,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,21","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19687,7 +19740,7 @@
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="25" t="str">
+      <c r="K42" s="28" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
         <v>{"Requisite":{"id":124,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,22","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19718,7 +19771,7 @@
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="25" t="str">
+      <c r="K43" s="28" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
         <v>{"Requisite":{"id":125,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","description":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,23","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19749,7 +19802,7 @@
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="25" t="str">
+      <c r="K44" s="28" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
         <v>{"Requisite":{"id":126,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,24","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19780,7 +19833,7 @@
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="25" t="str">
+      <c r="K45" s="28" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
         <v>{"Requisite":{"id":127,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,25","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19811,7 +19864,7 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="25" t="str">
+      <c r="K46" s="28" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
         <v>{"Requisite":{"id":128,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,26","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19842,7 +19895,7 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="25" t="str">
+      <c r="K47" s="28" t="str">
         <f>CONCATENATE($A$1,A47,$B$1,B47,$C$1,B47,$D$1,D47,$E$1,E47,$F$1,F47,$G$1,G47,$H$1,$I$1,I47,$J$1,J47,$K$1)</f>
         <v>{"Requisite":{"id":129,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,27","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19873,7 +19926,7 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="25" t="str">
+      <c r="K48" s="28" t="str">
         <f>CONCATENATE($A$1,A48,$B$1,B48,$C$1,B48,$D$1,D48,$E$1,E48,$F$1,F48,$G$1,G48,$H$1,$I$1,I48,$J$1,J48,$K$1)</f>
         <v>{"Requisite":{"id":130,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,28","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19904,7 +19957,7 @@
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49" s="25" t="str">
+      <c r="K49" s="28" t="str">
         <f>CONCATENATE($A$1,A49,$B$1,B49,$C$1,B49,$D$1,D49,$E$1,E49,$F$1,F49,$G$1,G49,$H$1,$I$1,I49,$J$1,J49,$K$1)</f>
         <v>{"Requisite":{"id":131,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,29","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19935,7 +19988,7 @@
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50" s="25" t="str">
+      <c r="K50" s="28" t="str">
         <f>CONCATENATE($A$1,A50,$B$1,B50,$C$1,B50,$D$1,D50,$E$1,E50,$F$1,F50,$G$1,G50,$H$1,$I$1,I50,$J$1,J50,$K$1)</f>
         <v>{"Requisite":{"id":132,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","description":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,3","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19966,7 +20019,7 @@
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="25" t="str">
+      <c r="K51" s="28" t="str">
         <f>CONCATENATE($A$1,A51,$B$1,B51,$C$1,B51,$D$1,D51,$E$1,E51,$F$1,F51,$G$1,G51,$H$1,$I$1,I51,$J$1,J51,$K$1)</f>
         <v>{"Requisite":{"id":133,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,31","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -19997,7 +20050,7 @@
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="K52" s="25" t="str">
+      <c r="K52" s="28" t="str">
         <f>CONCATENATE($A$1,A52,$B$1,B52,$C$1,B52,$D$1,D52,$E$1,E52,$F$1,F52,$G$1,G52,$H$1,$I$1,I52,$J$1,J52,$K$1)</f>
         <v>{"Requisite":{"id":134,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un área específica de bar / cafeteria.","description":"Contar con un área específica de bar / cafeteria.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,32","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20028,7 +20081,7 @@
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="K53" s="25" t="str">
+      <c r="K53" s="28" t="str">
         <f>CONCATENATE($A$1,A53,$B$1,B53,$C$1,B53,$D$1,D53,$E$1,E53,$F$1,F53,$G$1,G53,$H$1,$I$1,I53,$J$1,J53,$K$1)</f>
         <v>{"Requisite":{"id":135,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salidas de emergencia identificadas y habilitadas.","description":"Contar con salidas de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,33","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20059,7 +20112,7 @@
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="K54" s="25" t="str">
+      <c r="K54" s="28" t="str">
         <f>CONCATENATE($A$1,A54,$B$1,B54,$C$1,B54,$D$1,D54,$E$1,E54,$F$1,F54,$G$1,G54,$H$1,$I$1,I54,$J$1,J54,$K$1)</f>
         <v>{"Requisite":{"id":136,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,34","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20090,7 +20143,7 @@
       <c r="J55">
         <v>1</v>
       </c>
-      <c r="K55" s="25" t="str">
+      <c r="K55" s="28" t="str">
         <f>CONCATENATE($A$1,A55,$B$1,B55,$C$1,B55,$D$1,D55,$E$1,E55,$F$1,F55,$G$1,G55,$H$1,$I$1,I55,$J$1,J55,$K$1)</f>
         <v>{"Requisite":{"id":137,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","description":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,35","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20121,7 +20174,7 @@
       <c r="J56">
         <v>1</v>
       </c>
-      <c r="K56" s="25" t="str">
+      <c r="K56" s="28" t="str">
         <f>CONCATENATE($A$1,A56,$B$1,B56,$C$1,B56,$D$1,D56,$E$1,E56,$F$1,F56,$G$1,G56,$H$1,$I$1,I56,$J$1,J56,$K$1)</f>
         <v>{"Requisite":{"id":138,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,36","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20152,7 +20205,7 @@
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="K57" s="25" t="str">
+      <c r="K57" s="28" t="str">
         <f>CONCATENATE($A$1,A57,$B$1,B57,$C$1,B57,$D$1,D57,$E$1,E57,$F$1,F57,$G$1,G57,$H$1,$I$1,I57,$J$1,J57,$K$1)</f>
         <v>{"Requisite":{"id":139,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,37","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20183,7 +20236,7 @@
       <c r="J58">
         <v>1</v>
       </c>
-      <c r="K58" s="25" t="str">
+      <c r="K58" s="28" t="str">
         <f>CONCATENATE($A$1,A58,$B$1,B58,$C$1,B58,$D$1,D58,$E$1,E58,$F$1,F58,$G$1,G58,$H$1,$I$1,I58,$J$1,J58,$K$1)</f>
         <v>{"Requisite":{"id":140,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,38","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20214,7 +20267,7 @@
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="K59" s="25" t="str">
+      <c r="K59" s="28" t="str">
         <f>CONCATENATE($A$1,A59,$B$1,B59,$C$1,B59,$D$1,D59,$E$1,E59,$F$1,F59,$G$1,G59,$H$1,$I$1,I59,$J$1,J59,$K$1)</f>
         <v>{"Requisite":{"id":141,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,39","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20245,7 +20298,7 @@
       <c r="J60">
         <v>1</v>
       </c>
-      <c r="K60" s="25" t="str">
+      <c r="K60" s="28" t="str">
         <f>CONCATENATE($A$1,A60,$B$1,B60,$C$1,B60,$D$1,D60,$E$1,E60,$F$1,F60,$G$1,G60,$H$1,$I$1,I60,$J$1,J60,$K$1)</f>
         <v>{"Requisite":{"id":142,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,4","score":1,"register_type_id":6},"attach":[]},
 </v>
@@ -20255,7 +20308,7 @@
       <c r="A61">
         <v>143</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D61" t="s">
@@ -20277,7 +20330,7 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="25" t="str">
+      <c r="K61" s="28" t="str">
         <f>CONCATENATE($A$1,A61,$B$1,B61,$C$1,B61,$D$1,D61,$E$1,E61,$F$1,F61,$G$1,G61,$H$1,$I$1,I61,$J$1,J61,$K$1)</f>
         <v>{"Requisite":{"id":143,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"REQUISITOS DE CATEGORIZACIÓN (Anexo C1)","description":"REQUISITOS DE CATEGORIZACIÓN (Anexo C1)","father_code":"-","to_approve":21,"mandatory":false,"type":"GRUPO 0","params":"","code":"4","score":0,"register_type_id":6},"attach":[]},
 </v>
@@ -20308,7 +20361,7 @@
       <c r="J62" s="20">
         <v>2</v>
       </c>
-      <c r="K62" s="25" t="str">
+      <c r="K62" s="28" t="str">
         <f>CONCATENATE($A$1,A62,$B$1,B62,$C$1,B62,$D$1,D62,$E$1,E62,$F$1,F62,$G$1,G62,$H$1,$I$1,I62,$J$1,J62,$K$1)</f>
         <v>{"Requisite":{"id":144,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con entrada de clientes independiente de la del personal de servicio.","description":"Cuenta con entrada de clientes independiente de la del personal de servicio.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,1","score":2,"register_type_id":6},"attach":[]},
 </v>
@@ -20321,7 +20374,7 @@
       <c r="B63" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="28">
         <v>4</v>
       </c>
       <c r="E63">
@@ -20339,7 +20392,7 @@
       <c r="J63" s="20">
         <v>4</v>
       </c>
-      <c r="K63" s="25" t="str">
+      <c r="K63" s="28" t="str">
         <f>CONCATENATE($A$1,A63,$B$1,B63,$C$1,B63,$D$1,D63,$E$1,E63,$F$1,F63,$G$1,G63,$H$1,$I$1,I63,$J$1,J63,$K$1)</f>
         <v>{"Requisite":{"id":145,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con calefacción y/o aire acondicionado en área de servicio.","description":"Cuenta con calefacción y/o aire acondicionado en área de servicio.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,2","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20352,7 +20405,7 @@
       <c r="B64" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="28">
         <v>4</v>
       </c>
       <c r="E64">
@@ -20370,7 +20423,7 @@
       <c r="J64" s="20">
         <v>2</v>
       </c>
-      <c r="K64" s="25" t="str">
+      <c r="K64" s="28" t="str">
         <f>CONCATENATE($A$1,A64,$B$1,B64,$C$1,B64,$D$1,D64,$E$1,E64,$F$1,F64,$G$1,G64,$H$1,$I$1,I64,$J$1,J64,$K$1)</f>
         <v>{"Requisite":{"id":146,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con vestuarios y servicios higiénicos independientes para personal de servicio. Este lugar debe estar iluminado, ventilado y limpio.","description":"Cuenta con vestuarios y servicios higiénicos independientes para personal de servicio. Este lugar debe estar iluminado, ventilado y limpio.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,3","score":2,"register_type_id":6},"attach":[]},
 </v>
@@ -20383,7 +20436,7 @@
       <c r="B65" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="28">
         <v>4</v>
       </c>
       <c r="E65">
@@ -20401,7 +20454,7 @@
       <c r="J65" s="20">
         <v>4</v>
       </c>
-      <c r="K65" s="25" t="str">
+      <c r="K65" s="28" t="str">
         <f>CONCATENATE($A$1,A65,$B$1,B65,$C$1,B65,$D$1,D65,$E$1,E65,$F$1,F65,$G$1,G65,$H$1,$I$1,I65,$J$1,J65,$K$1)</f>
         <v>{"Requisite":{"id":147,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con menú en idioma extranjero.","description":"Cuenta con menú en idioma extranjero.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,4","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20414,7 +20467,7 @@
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="28">
         <v>4</v>
       </c>
       <c r="E66">
@@ -20432,7 +20485,7 @@
       <c r="J66" s="20">
         <v>4</v>
       </c>
-      <c r="K66" s="25" t="str">
+      <c r="K66" s="28" t="str">
         <f>CONCATENATE($A$1,A66,$B$1,B66,$C$1,B66,$D$1,D66,$E$1,E66,$F$1,F66,$G$1,G66,$H$1,$I$1,I66,$J$1,J66,$K$1)</f>
         <v>{"Requisite":{"id":148,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con menú de vinos nacionales e importados, vinos espumosos, licores, cervezas y aguardientes.","description":"Cuenta con menú de vinos nacionales e importados, vinos espumosos, licores, cervezas y aguardientes.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,5","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20445,7 +20498,7 @@
       <c r="B67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="28">
         <v>4</v>
       </c>
       <c r="E67">
@@ -20463,7 +20516,7 @@
       <c r="J67" s="20">
         <v>4</v>
       </c>
-      <c r="K67" s="25" t="str">
+      <c r="K67" s="28" t="str">
         <f>CONCATENATE($A$1,A67,$B$1,B67,$C$1,B67,$D$1,D67,$E$1,E67,$F$1,F67,$G$1,G67,$H$1,$I$1,I67,$J$1,J67,$K$1)</f>
         <v>{"Requisite":{"id":149,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con parqueadero, propio o contratado, y/o servicio de valet parking.","description":"Cuenta con parqueadero, propio o contratado, y/o servicio de valet parking.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,6","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20476,7 +20529,7 @@
       <c r="B68" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="28">
         <v>4</v>
       </c>
       <c r="E68">
@@ -20494,7 +20547,7 @@
       <c r="J68" s="20">
         <v>4</v>
       </c>
-      <c r="K68" s="25" t="str">
+      <c r="K68" s="28" t="str">
         <f>CONCATENATE($A$1,A68,$B$1,B68,$C$1,B68,$D$1,D68,$E$1,E68,$F$1,F68,$G$1,G68,$H$1,$I$1,I68,$J$1,J68,$K$1)</f>
         <v>{"Requisite":{"id":150,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con servicio de reserva de mesa.","description":"Cuenta con servicio de reserva de mesa.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,7","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20507,7 +20560,7 @@
       <c r="B69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="28">
         <v>4</v>
       </c>
       <c r="E69">
@@ -20525,7 +20578,7 @@
       <c r="J69" s="20">
         <v>4</v>
       </c>
-      <c r="K69" s="25" t="str">
+      <c r="K69" s="28" t="str">
         <f>CONCATENATE($A$1,A69,$B$1,B69,$C$1,B69,$D$1,D69,$E$1,E69,$F$1,F69,$G$1,G69,$H$1,$I$1,I69,$J$1,J69,$K$1)</f>
         <v>{"Requisite":{"id":151,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,8","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20538,7 +20591,7 @@
       <c r="B70" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="28">
         <v>4</v>
       </c>
       <c r="E70">
@@ -20556,7 +20609,7 @@
       <c r="J70" s="20">
         <v>4</v>
       </c>
-      <c r="K70" s="25" t="str">
+      <c r="K70" s="28" t="str">
         <f>CONCATENATE($A$1,A70,$B$1,B70,$C$1,B70,$D$1,D70,$E$1,E70,$F$1,F70,$G$1,G70,$H$1,$I$1,I70,$J$1,J70,$K$1)</f>
         <v>{"Requisite":{"id":152,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un 10%  mínimo del personal  que acredita el nivel A2 (nivel básico) de conocimiento de un idioma extranjero de acuerdo al Marco Común Europeo para las lenguas.","description":"Cuenta con un 10%  mínimo del personal  que acredita el nivel A2 (nivel básico) de conocimiento de un idioma extranjero de acuerdo al Marco Común Europeo para las lenguas.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,9","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20569,7 +20622,7 @@
       <c r="B71" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="28">
         <v>4</v>
       </c>
       <c r="E71">
@@ -20587,7 +20640,7 @@
       <c r="J71" s="20">
         <v>6</v>
       </c>
-      <c r="K71" s="25" t="str">
+      <c r="K71" s="28" t="str">
         <f>CONCATENATE($A$1,A71,$B$1,B71,$C$1,B71,$D$1,D71,$E$1,E71,$F$1,F71,$G$1,G71,$H$1,$I$1,I71,$J$1,J71,$K$1)</f>
         <v>{"Requisite":{"id":153,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un plan de registro de temperaturas en equipos de congelación y refrigeración.","description":"Cuenta con un plan de registro de temperaturas en equipos de congelación y refrigeración.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,1","score":6,"register_type_id":6},"attach":[]},
 </v>
@@ -20600,7 +20653,7 @@
       <c r="B72" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="28">
         <v>4</v>
       </c>
       <c r="E72">
@@ -20618,7 +20671,7 @@
       <c r="J72" s="20">
         <v>6</v>
       </c>
-      <c r="K72" s="25" t="str">
+      <c r="K72" s="28" t="str">
         <f>CONCATENATE($A$1,A72,$B$1,B72,$C$1,B72,$D$1,D72,$E$1,E72,$F$1,F72,$G$1,G72,$H$1,$I$1,I72,$J$1,J72,$K$1)</f>
         <v>{"Requisite":{"id":154,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con sistemas de purificación de agua en áreas de preparación de alimentos y/o bebidas.","description":"Cuenta con sistemas de purificación de agua en áreas de preparación de alimentos y/o bebidas.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,11","score":6,"register_type_id":6},"attach":[]},
 </v>
@@ -20631,7 +20684,7 @@
       <c r="B73" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="28">
         <v>4</v>
       </c>
       <c r="E73">
@@ -20649,7 +20702,7 @@
       <c r="J73" s="20">
         <v>4</v>
       </c>
-      <c r="K73" s="25" t="str">
+      <c r="K73" s="28" t="str">
         <f>CONCATENATE($A$1,A73,$B$1,B73,$C$1,B73,$D$1,D73,$E$1,E73,$F$1,F73,$G$1,G73,$H$1,$I$1,I73,$J$1,J73,$K$1)</f>
         <v>{"Requisite":{"id":155,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con fuentes de abastecimiento alternativo de energía eléctrica en caso de necesitarlo.","description":"Cuenta con fuentes de abastecimiento alternativo de energía eléctrica en caso de necesitarlo.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,12","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20662,7 +20715,7 @@
       <c r="B74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="28">
         <v>4</v>
       </c>
       <c r="E74">
@@ -20680,7 +20733,7 @@
       <c r="J74" s="20">
         <v>4</v>
       </c>
-      <c r="K74" s="25" t="str">
+      <c r="K74" s="28" t="str">
         <f>CONCATENATE($A$1,A74,$B$1,B74,$C$1,B74,$D$1,D74,$E$1,E74,$F$1,F74,$G$1,G74,$H$1,$I$1,I74,$J$1,J74,$K$1)</f>
         <v>{"Requisite":{"id":156,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un listado de compañías de taxis de la zona y/o aplicaciones móviles para otorgar el servicio de taxi.","description":"Cuenta con un listado de compañías de taxis de la zona y/o aplicaciones móviles para otorgar el servicio de taxi.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,13","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20693,7 +20746,7 @@
       <c r="B75" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="28">
         <v>4</v>
       </c>
       <c r="E75">
@@ -20711,7 +20764,7 @@
       <c r="J75" s="20">
         <v>4</v>
       </c>
-      <c r="K75" s="25" t="str">
+      <c r="K75" s="28" t="str">
         <f>CONCATENATE($A$1,A75,$B$1,B75,$C$1,B75,$D$1,D75,$E$1,E75,$F$1,F75,$G$1,G75,$H$1,$I$1,I75,$J$1,J75,$K$1)</f>
         <v>{"Requisite":{"id":157,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con sistema de facturación.","description":"Cuenta con sistema de facturación.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,14","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20724,7 +20777,7 @@
       <c r="B76" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="28">
         <v>4</v>
       </c>
       <c r="E76">
@@ -20742,7 +20795,7 @@
       <c r="J76" s="20">
         <v>4</v>
       </c>
-      <c r="K76" s="25" t="str">
+      <c r="K76" s="28" t="str">
         <f>CONCATENATE($A$1,A76,$B$1,B76,$C$1,B76,$D$1,D76,$E$1,E76,$F$1,F76,$G$1,G76,$H$1,$I$1,I76,$J$1,J76,$K$1)</f>
         <v>{"Requisite":{"id":158,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con carta de alimentos","description":"Cuenta con carta de alimentos","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,15","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20755,7 +20808,7 @@
       <c r="B77" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="28">
         <v>4</v>
       </c>
       <c r="E77">
@@ -20773,7 +20826,7 @@
       <c r="J77" s="20">
         <v>4</v>
       </c>
-      <c r="K77" s="25" t="str">
+      <c r="K77" s="28" t="str">
         <f>CONCATENATE($A$1,A77,$B$1,B77,$C$1,B77,$D$1,D77,$E$1,E77,$F$1,F77,$G$1,G77,$H$1,$I$1,I77,$J$1,J77,$K$1)</f>
         <v>{"Requisite":{"id":159,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con área específica para presentaciones en vivo.","description":"Cuenta con área específica para presentaciones en vivo.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,16","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20786,7 +20839,7 @@
       <c r="B78" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="28">
         <v>4</v>
       </c>
       <c r="E78">
@@ -20804,7 +20857,7 @@
       <c r="J78" s="20">
         <v>4</v>
       </c>
-      <c r="K78" s="25" t="str">
+      <c r="K78" s="28" t="str">
         <f>CONCATENATE($A$1,A78,$B$1,B78,$C$1,B78,$D$1,D78,$E$1,E78,$F$1,F78,$G$1,G78,$H$1,$I$1,I78,$J$1,J78,$K$1)</f>
         <v>{"Requisite":{"id":160,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con una póliza de responsabilidad civil.","description":"Cuenta con una póliza de responsabilidad civil.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,17","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20817,7 +20870,7 @@
       <c r="B79" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="28">
         <v>4</v>
       </c>
       <c r="E79">
@@ -20835,7 +20888,7 @@
       <c r="J79" s="20">
         <v>6</v>
       </c>
-      <c r="K79" s="25" t="str">
+      <c r="K79" s="28" t="str">
         <f>CONCATENATE($A$1,A79,$B$1,B79,$C$1,B79,$D$1,D79,$E$1,E79,$F$1,F79,$G$1,G79,$H$1,$I$1,I79,$J$1,J79,$K$1)</f>
         <v>{"Requisite":{"id":161,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con plan de limpieza.","description":"Cuenta con plan de limpieza.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,18","score":6,"register_type_id":6},"attach":[]},
 </v>
@@ -20848,7 +20901,7 @@
       <c r="B80" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="28">
         <v>4</v>
       </c>
       <c r="E80">
@@ -20866,7 +20919,7 @@
       <c r="J80" s="20">
         <v>4</v>
       </c>
-      <c r="K80" s="25" t="str">
+      <c r="K80" s="28" t="str">
         <f>CONCATENATE($A$1,A80,$B$1,B80,$C$1,B80,$D$1,D80,$E$1,E80,$F$1,F80,$G$1,G80,$H$1,$I$1,I80,$J$1,J80,$K$1)</f>
         <v>{"Requisite":{"id":162,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con facilidades de pago electrónico (transferencia, pay pal, tarjeta de débito/ crédito y/o dinero electrónico).","description":"Contar con facilidades de pago electrónico (transferencia, pay pal, tarjeta de débito/ crédito y/o dinero electrónico).","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,19","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -20879,7 +20932,7 @@
       <c r="B81" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="28">
         <v>4</v>
       </c>
       <c r="E81">
@@ -20897,7 +20950,7 @@
       <c r="J81" s="20">
         <v>2</v>
       </c>
-      <c r="K81" s="25" t="str">
+      <c r="K81" s="28" t="str">
         <f>CONCATENATE($A$1,A81,$B$1,B81,$C$1,B81,$D$1,D81,$E$1,E81,$F$1,F81,$G$1,G81,$H$1,$I$1,I81,$J$1,J81,$K$1)</f>
         <v>{"Requisite":{"id":163,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos ","description":"Contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos ","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,2","score":2,"register_type_id":6},"attach":[]},
 </v>
@@ -20910,7 +20963,7 @@
       <c r="B82" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="28">
         <v>4</v>
       </c>
       <c r="E82">
@@ -20928,7 +20981,7 @@
       <c r="J82" s="20">
         <v>4</v>
       </c>
-      <c r="K82" s="25" t="str">
+      <c r="K82" s="28" t="str">
         <f>CONCATENATE($A$1,A82,$B$1,B82,$C$1,B82,$D$1,D82,$E$1,E82,$F$1,F82,$G$1,G82,$H$1,$I$1,I82,$J$1,J82,$K$1)</f>
         <v>{"Requisite":{"id":164,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con área de fumadores ","description":"Cuenta con área de fumadores ","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,21","score":4,"register_type_id":6},"attach":[]},
 </v>
@@ -21109,8 +21162,8 @@
   <sheetPr/>
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -21655,34 +21708,34 @@
 </v>
       </c>
     </row>
-    <row r="18" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A18" s="3">
+    <row r="18" s="23" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A18" s="25">
         <v>181</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="30">
         <v>3.1</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="str">
+      <c r="J18" s="23">
+        <v>1</v>
+      </c>
+      <c r="K18" s="23" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":181,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":181,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,1","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21703,7 +21756,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I19" s="15">
         <v>3.2</v>
@@ -21713,7 +21766,7 @@
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":182,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":182,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,2","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21734,7 +21787,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I20" s="15">
         <v>3.3</v>
@@ -21744,7 +21797,7 @@
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":183,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":183,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,3","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21765,7 +21818,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I21" s="15">
         <v>3.4</v>
@@ -21775,7 +21828,7 @@
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":184,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":184,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,4","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21796,7 +21849,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I22" s="15">
         <v>3.5</v>
@@ -21806,7 +21859,7 @@
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":185,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":185,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,5","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21827,7 +21880,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I23" s="15">
         <v>3.6</v>
@@ -21837,7 +21890,7 @@
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":186,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":186,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,6","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21889,7 +21942,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>39</v>
@@ -21899,7 +21952,7 @@
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":188,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":188,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.7.1","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21920,7 +21973,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>41</v>
@@ -21930,7 +21983,7 @@
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":189,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":189,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.7.2","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21951,7 +22004,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>43</v>
@@ -21961,7 +22014,7 @@
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":190,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":190,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3.7.3","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -21982,7 +22035,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I28" s="15">
         <v>3.8</v>
@@ -21992,7 +22045,7 @@
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":191,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,8","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":191,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,8","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22013,7 +22066,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I29" s="15">
         <v>3.9</v>
@@ -22023,7 +22076,7 @@
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":192,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con alarma de incendios y/o detector de humo.","description":"Debe contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":192,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con alarma de incendios y/o detector de humo.","description":"Debe contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,9","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22044,7 +22097,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I30" s="10">
         <v>3.1</v>
@@ -22054,7 +22107,7 @@
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":193,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":193,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,1","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22075,7 +22128,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I31" s="10">
         <v>3.11</v>
@@ -22085,7 +22138,7 @@
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":194,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":194,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,11","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22106,7 +22159,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I32" s="10">
         <v>3.12</v>
@@ -22116,7 +22169,7 @@
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":195,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":195,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,12","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22137,7 +22190,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I33" s="10">
         <v>3.13</v>
@@ -22147,7 +22200,7 @@
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":196,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con sumideros en áreas de preparación de alimentos.","description":"Debe contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":196,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con sumideros en áreas de preparación de alimentos.","description":"Debe contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,13","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22168,7 +22221,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I34" s="10">
         <v>3.14</v>
@@ -22178,7 +22231,7 @@
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":197,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","description":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":197,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","description":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,14","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22199,7 +22252,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I35" s="10">
         <v>3.15</v>
@@ -22209,7 +22262,7 @@
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":198,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","description":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":198,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","description":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,15","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22230,7 +22283,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I36" s="10">
         <v>3.16</v>
@@ -22240,7 +22293,7 @@
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":199,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los establecimientos que compartan baños","description":"Nota: se exceptúa para los establecimientos que compartan baños","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":199,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los establecimientos que compartan baños","description":"Nota: se exceptúa para los establecimientos que compartan baños","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,16","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22261,7 +22314,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I37" s="10">
         <v>3.17</v>
@@ -22271,7 +22324,7 @@
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":200,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":200,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,17","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22292,7 +22345,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I38" s="10">
         <v>3.18</v>
@@ -22302,7 +22355,7 @@
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":201,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":201,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,18","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22323,7 +22376,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I39" s="10">
         <v>3.19</v>
@@ -22333,7 +22386,7 @@
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":202,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":202,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,19","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22354,7 +22407,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I40" s="10">
         <v>3.2</v>
@@ -22364,7 +22417,7 @@
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":203,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":203,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,2","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22385,7 +22438,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I41" s="10">
         <v>3.21</v>
@@ -22395,7 +22448,7 @@
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":204,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":204,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,21","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22416,7 +22469,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I42" s="10">
         <v>3.22</v>
@@ -22426,7 +22479,7 @@
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":205,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":205,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,22","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22447,7 +22500,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I43" s="10">
         <v>3.23</v>
@@ -22457,7 +22510,7 @@
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":206,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":206,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,23","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22478,7 +22531,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I44" s="10">
         <v>3.24</v>
@@ -22488,7 +22541,7 @@
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":207,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":207,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,24","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22509,7 +22562,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I45" s="10">
         <v>3.25</v>
@@ -22519,7 +22572,7 @@
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":208,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":208,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,25","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22540,7 +22593,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I46" s="10">
         <v>3.26</v>
@@ -22550,7 +22603,7 @@
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
-        <v>{"Requisite":{"id":209,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":209,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,26","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22571,7 +22624,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I47" s="10">
         <v>3.27</v>
@@ -22581,7 +22634,7 @@
       </c>
       <c r="K47" t="str">
         <f>CONCATENATE($A$1,A47,$B$1,B47,$C$1,B47,$D$1,D47,$E$1,E47,$F$1,F47,$G$1,G47,$H$1,$I$1,I47,$J$1,J47,$K$1)</f>
-        <v>{"Requisite":{"id":210,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":210,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,27","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22602,7 +22655,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I48" s="10">
         <v>3.28</v>
@@ -22612,7 +22665,7 @@
       </c>
       <c r="K48" t="str">
         <f>CONCATENATE($A$1,A48,$B$1,B48,$C$1,B48,$D$1,D48,$E$1,E48,$F$1,F48,$G$1,G48,$H$1,$I$1,I48,$J$1,J48,$K$1)</f>
-        <v>{"Requisite":{"id":211,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","description":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":211,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","description":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,28","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22633,7 +22686,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I49" s="10">
         <v>3.29</v>
@@ -22643,7 +22696,7 @@
       </c>
       <c r="K49" t="str">
         <f>CONCATENATE($A$1,A49,$B$1,B49,$C$1,B49,$D$1,D49,$E$1,E49,$F$1,F49,$G$1,G49,$H$1,$I$1,I49,$J$1,J49,$K$1)</f>
-        <v>{"Requisite":{"id":212,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","description":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":212,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","description":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,29","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22664,7 +22717,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I50" s="10">
         <v>3.3</v>
@@ -22674,7 +22727,7 @@
       </c>
       <c r="K50" t="str">
         <f>CONCATENATE($A$1,A50,$B$1,B50,$C$1,B50,$D$1,D50,$E$1,E50,$F$1,F50,$G$1,G50,$H$1,$I$1,I50,$J$1,J50,$K$1)</f>
-        <v>{"Requisite":{"id":213,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":213,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,3","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22695,7 +22748,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I51" s="10">
         <v>3.31</v>
@@ -22705,7 +22758,7 @@
       </c>
       <c r="K51" t="str">
         <f>CONCATENATE($A$1,A51,$B$1,B51,$C$1,B51,$D$1,D51,$E$1,E51,$F$1,F51,$G$1,G51,$H$1,$I$1,I51,$J$1,J51,$K$1)</f>
-        <v>{"Requisite":{"id":214,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","description":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":214,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","description":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,31","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22726,7 +22779,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I52" s="10">
         <v>3.32</v>
@@ -22736,7 +22789,7 @@
       </c>
       <c r="K52" t="str">
         <f>CONCATENATE($A$1,A52,$B$1,B52,$C$1,B52,$D$1,D52,$E$1,E52,$F$1,F52,$G$1,G52,$H$1,$I$1,I52,$J$1,J52,$K$1)</f>
-        <v>{"Requisite":{"id":215,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":215,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,32","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22757,7 +22810,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I53" s="10">
         <v>3.33</v>
@@ -22767,7 +22820,7 @@
       </c>
       <c r="K53" t="str">
         <f>CONCATENATE($A$1,A53,$B$1,B53,$C$1,B53,$D$1,D53,$E$1,E53,$F$1,F53,$G$1,G53,$H$1,$I$1,I53,$J$1,J53,$K$1)</f>
-        <v>{"Requisite":{"id":216,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","description":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":216,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","description":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,33","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22788,7 +22841,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I54" s="10">
         <v>3.34</v>
@@ -22798,7 +22851,7 @@
       </c>
       <c r="K54" t="str">
         <f>CONCATENATE($A$1,A54,$B$1,B54,$C$1,B54,$D$1,D54,$E$1,E54,$F$1,F54,$G$1,G54,$H$1,$I$1,I54,$J$1,J54,$K$1)</f>
-        <v>{"Requisite":{"id":217,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":217,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,34","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22819,7 +22872,7 @@
         <v>13</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I55" s="10">
         <v>3.35</v>
@@ -22829,7 +22882,7 @@
       </c>
       <c r="K55" t="str">
         <f>CONCATENATE($A$1,A55,$B$1,B55,$C$1,B55,$D$1,D55,$E$1,E55,$F$1,F55,$G$1,G55,$H$1,$I$1,I55,$J$1,J55,$K$1)</f>
-        <v>{"Requisite":{"id":218,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":218,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,35","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22850,7 +22903,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I56" s="10">
         <v>3.36</v>
@@ -22860,7 +22913,7 @@
       </c>
       <c r="K56" t="str">
         <f>CONCATENATE($A$1,A56,$B$1,B56,$C$1,B56,$D$1,D56,$E$1,E56,$F$1,F56,$G$1,G56,$H$1,$I$1,I56,$J$1,J56,$K$1)</f>
-        <v>{"Requisite":{"id":219,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con suministro continuo de energía eléctrica.","description":"Debe contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":219,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con suministro continuo de energía eléctrica.","description":"Debe contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,36","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22881,7 +22934,7 @@
         <v>13</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I57" s="10">
         <v>3.37</v>
@@ -22891,7 +22944,7 @@
       </c>
       <c r="K57" t="str">
         <f>CONCATENATE($A$1,A57,$B$1,B57,$C$1,B57,$D$1,D57,$E$1,E57,$F$1,F57,$G$1,G57,$H$1,$I$1,I57,$J$1,J57,$K$1)</f>
-        <v>{"Requisite":{"id":220,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":220,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,37","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22912,7 +22965,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I58" s="10">
         <v>3.38</v>
@@ -22922,7 +22975,7 @@
       </c>
       <c r="K58" t="str">
         <f>CONCATENATE($A$1,A58,$B$1,B58,$C$1,B58,$D$1,D58,$E$1,E58,$F$1,F58,$G$1,G58,$H$1,$I$1,I58,$J$1,J58,$K$1)</f>
-        <v>{"Requisite":{"id":221,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":221,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,38","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22943,7 +22996,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I59" s="10">
         <v>3.39</v>
@@ -22953,7 +23006,7 @@
       </c>
       <c r="K59" t="str">
         <f>CONCATENATE($A$1,A59,$B$1,B59,$C$1,B59,$D$1,D59,$E$1,E59,$F$1,F59,$G$1,G59,$H$1,$I$1,I59,$J$1,J59,$K$1)</f>
-        <v>{"Requisite":{"id":222,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":222,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,39","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -22974,7 +23027,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I60" s="10">
         <v>3.4</v>
@@ -22984,7 +23037,7 @@
       </c>
       <c r="K60" t="str">
         <f>CONCATENATE($A$1,A60,$B$1,B60,$C$1,B60,$D$1,D60,$E$1,E60,$F$1,F60,$G$1,G60,$H$1,$I$1,I60,$J$1,J60,$K$1)</f>
-        <v>{"Requisite":{"id":223,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":223,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,4","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -23005,7 +23058,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I61" s="10">
         <v>3.41</v>
@@ -23015,7 +23068,7 @@
       </c>
       <c r="K61" t="str">
         <f>CONCATENATE($A$1,A61,$B$1,B61,$C$1,B61,$D$1,D61,$E$1,E61,$F$1,F61,$G$1,G61,$H$1,$I$1,I61,$J$1,J61,$K$1)</f>
-        <v>{"Requisite":{"id":224,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,41","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":224,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":false,"type":"YES / NO","params":"","code":"3,41","score":1,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -24468,8 +24521,8 @@
   <sheetPr/>
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -26936,8 +26989,8 @@
   <sheetPr/>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -28365,8 +28418,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -29699,8 +29752,8 @@
   <sheetPr/>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -31551,10 +31604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="42"/>
       <c r="E1" t="s">
         <v>265</v>
       </c>
@@ -31731,8 +31784,8 @@
   <sheetPr/>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
@@ -31743,7 +31796,7 @@
     <col min="4" max="4" width="9.30833333333333" customWidth="1"/>
     <col min="5" max="5" width="12.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.4333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.4333333333333" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.4333333333333" style="32" customWidth="1"/>
     <col min="8" max="9" width="11.4333333333333" customWidth="1"/>
     <col min="10" max="10" width="9.90833333333333" customWidth="1"/>
     <col min="11" max="11" width="26.85" customWidth="1"/>
@@ -31838,7 +31891,7 @@
       <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="38"/>
       <c r="I3">
         <v>1.1</v>
       </c>
@@ -31871,7 +31924,7 @@
       <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="38"/>
       <c r="I4">
         <v>1.2</v>
       </c>
@@ -31904,7 +31957,7 @@
       <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="38"/>
       <c r="I5">
         <v>1.3</v>
       </c>
@@ -31937,7 +31990,7 @@
       <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="38"/>
       <c r="I6">
         <v>1.4</v>
       </c>
@@ -31970,7 +32023,7 @@
       <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="38"/>
       <c r="I7">
         <v>1.5</v>
       </c>
@@ -31987,7 +32040,7 @@
       <c r="A8" s="3">
         <v>489</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="13"/>
@@ -32003,7 +32056,7 @@
       <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="38"/>
       <c r="I8">
         <v>1.6</v>
       </c>
@@ -32036,7 +32089,7 @@
       <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="38"/>
       <c r="I9">
         <v>1.7</v>
       </c>
@@ -32069,7 +32122,7 @@
       <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="38"/>
       <c r="I10">
         <v>1.8</v>
       </c>
@@ -32089,11 +32142,11 @@
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -32102,7 +32155,7 @@
       <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="39"/>
       <c r="I11">
         <v>1.9</v>
       </c>
@@ -32122,11 +32175,11 @@
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34">
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -32135,7 +32188,7 @@
       <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="21">
         <v>1.1</v>
       </c>
@@ -32551,8 +32604,8 @@
       <c r="B25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35">
         <v>3.7</v>
       </c>
       <c r="E25" s="7">
@@ -32564,7 +32617,7 @@
       <c r="G25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="40"/>
       <c r="I25" t="s">
         <v>39</v>
       </c>
@@ -32584,8 +32637,8 @@
       <c r="B26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29">
+      <c r="C26" s="36"/>
+      <c r="D26" s="35">
         <v>3.7</v>
       </c>
       <c r="E26" s="7">
@@ -32597,7 +32650,7 @@
       <c r="G26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="41"/>
       <c r="I26" t="s">
         <v>41</v>
       </c>
@@ -32614,11 +32667,11 @@
       <c r="A27" s="3">
         <v>508</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29">
+      <c r="C27" s="36"/>
+      <c r="D27" s="35">
         <v>3.7</v>
       </c>
       <c r="E27" s="7">
@@ -32630,7 +32683,7 @@
       <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="21" t="s">
         <v>43</v>
       </c>
